--- a/App/App/logs/021_log_analytics_01.xlsx
+++ b/App/App/logs/021_log_analytics_01.xlsx
@@ -895,7 +895,7 @@
                 <c:pt idx="17">
                   <c:v>7.9723299999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="18" formatCode="0.00E+00">
                   <c:v>0.14626500000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
@@ -1188,6 +1188,84 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>0.123776</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.19867399999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.20463799999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.22505600000000001</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="0.00E+00">
+                  <c:v>7.8294300000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="0.00E+00">
+                  <c:v>6.8793800000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.179925</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.194214</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.20777300000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.21229700000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.19430500000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.206038</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.20411199999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.20754400000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.22309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.21909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.23657600000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.9111699999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="0.00E+00">
+                  <c:v>2.82785E-6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.198737</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.213419</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.21908</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.23077700000000001</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="0.00E+00">
+                  <c:v>4.2683799999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.138986</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="0.00E+00">
+                  <c:v>3.9260600000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.21299599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,6 +1909,84 @@
                 <c:pt idx="115">
                   <c:v>-0.171181</c:v>
                 </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.157833</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.15943599999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.15811700000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.67398</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.6704600000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.17562700000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.15807299999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.16250700000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.150646</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.17393400000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.174647</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.17103099999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.17152500000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.151783</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.15726100000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.158522</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.16964299999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.68018</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.153089</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.163355</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.15758900000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.16603000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.67031</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.17226900000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.67804</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.161103</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2187,6 +2343,84 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>-0.35885699999999998</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-0.24276300000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.233986</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.18717800000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.48088999999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.48366399999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.28385100000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-0.25362099999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.22824700000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.18399199999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.27446100000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.24895600000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-0.24563399999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.25664500000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.209009</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.17116500000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.178482</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.42015400000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.48275000000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.25618600000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-0.22765199999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-0.16442699999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.18615499999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.48171399999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.34547800000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-0.48205599999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-0.13055700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3495,15 +3729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604837</xdr:colOff>
+      <xdr:colOff>604838</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3864,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:J283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3882,7 +4116,7 @@
     <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3911,7 +4145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -3939,8 +4173,9 @@
       <c r="I2" s="2">
         <v>9.0250199999999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>0.90559999999999996</v>
       </c>
@@ -3969,7 +4204,7 @@
         <v>0.38373400000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -3998,7 +4233,7 @@
         <v>9.7184400000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>0.52480000000000004</v>
       </c>
@@ -4027,7 +4262,7 @@
         <v>0.42959199999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>0.90720000000000001</v>
       </c>
@@ -4056,7 +4291,7 @@
         <v>0.400337</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4085,7 +4320,7 @@
         <v>4.4686999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4114,7 +4349,7 @@
         <v>0.83279800000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4143,7 +4378,7 @@
         <v>0.113288</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4172,7 +4407,7 @@
         <v>6.2392899999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>0.89600000000000002</v>
       </c>
@@ -4201,7 +4436,7 @@
         <v>0.367479</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4230,7 +4465,7 @@
         <v>0.82770699999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4259,7 +4494,7 @@
         <v>5.3027300000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4288,7 +4523,7 @@
         <v>0.82315499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>0.24479999999999999</v>
       </c>
@@ -4317,7 +4552,7 @@
         <v>0.43835299999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>0.19839999999999999</v>
       </c>
@@ -4443,7 +4678,7 @@
       <c r="C20" s="2">
         <v>1.6940900000000001</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>0.14626500000000001</v>
       </c>
       <c r="E20" s="2">
@@ -7273,6 +7508,4820 @@
       </c>
       <c r="I117" s="2">
         <v>0.366093</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B118" s="2">
+        <v>-0.24276300000000001</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0.157833</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.19867399999999999</v>
+      </c>
+      <c r="E118" s="2">
+        <v>59</v>
+      </c>
+      <c r="F118" s="2">
+        <v>-0.157833</v>
+      </c>
+      <c r="G118" s="2">
+        <v>-0.24276300000000001</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0.29433999999999999</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0.37729400000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B119" s="2">
+        <v>-0.233986</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0.15943599999999999</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.20463799999999999</v>
+      </c>
+      <c r="E119" s="2">
+        <v>66</v>
+      </c>
+      <c r="F119" s="2">
+        <v>-0.15943599999999999</v>
+      </c>
+      <c r="G119" s="2">
+        <v>-0.233986</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.29020299999999999</v>
+      </c>
+      <c r="I119" s="2">
+        <v>0.37577300000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B120" s="2">
+        <v>-0.18717800000000001</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0.15811700000000001</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.22505600000000001</v>
+      </c>
+      <c r="E120" s="2">
+        <v>57</v>
+      </c>
+      <c r="F120" s="2">
+        <v>-0.15811700000000001</v>
+      </c>
+      <c r="G120" s="2">
+        <v>-0.18717800000000001</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0.256129</v>
+      </c>
+      <c r="I120" s="2">
+        <v>0.38093700000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B121" s="2">
+        <v>-0.48088999999999998</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.67398</v>
+      </c>
+      <c r="D121" s="3">
+        <v>7.8294300000000004E-6</v>
+      </c>
+      <c r="E121" s="2">
+        <v>501</v>
+      </c>
+      <c r="F121" s="2">
+        <v>-1.67398</v>
+      </c>
+      <c r="G121" s="2">
+        <v>-0.48088999999999998</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0.83329799999999998</v>
+      </c>
+      <c r="I121" s="2">
+        <v>0.83247199999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B122" s="2">
+        <v>-0.48366399999999998</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1.6704600000000001</v>
+      </c>
+      <c r="D122" s="3">
+        <v>6.8793800000000005E-5</v>
+      </c>
+      <c r="E122" s="2">
+        <v>501</v>
+      </c>
+      <c r="F122" s="2">
+        <v>-1.6704600000000001</v>
+      </c>
+      <c r="G122" s="2">
+        <v>-0.48366399999999998</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0.82639200000000002</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0.82464099999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B123" s="2">
+        <v>-0.28385100000000002</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0.17562700000000001</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.179925</v>
+      </c>
+      <c r="E123" s="2">
+        <v>62</v>
+      </c>
+      <c r="F123" s="2">
+        <v>-0.17562700000000001</v>
+      </c>
+      <c r="G123" s="2">
+        <v>-0.28385100000000002</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.331538</v>
+      </c>
+      <c r="I123" s="2">
+        <v>0.36576799999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B124" s="2">
+        <v>-0.25362099999999999</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0.15807299999999999</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.194214</v>
+      </c>
+      <c r="E124" s="2">
+        <v>62</v>
+      </c>
+      <c r="F124" s="2">
+        <v>-0.15807299999999999</v>
+      </c>
+      <c r="G124" s="2">
+        <v>-0.25362099999999999</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0.30310900000000002</v>
+      </c>
+      <c r="I124" s="2">
+        <v>0.374249</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B125" s="2">
+        <v>-0.22824700000000001</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.16250700000000001</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.20777300000000001</v>
+      </c>
+      <c r="E125" s="2">
+        <v>62</v>
+      </c>
+      <c r="F125" s="2">
+        <v>-0.16250700000000001</v>
+      </c>
+      <c r="G125" s="2">
+        <v>-0.22824700000000001</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0.28848299999999999</v>
+      </c>
+      <c r="I125" s="2">
+        <v>0.37671900000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B126" s="2">
+        <v>-0.18399199999999999</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.150646</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.21229700000000001</v>
+      </c>
+      <c r="E126" s="2">
+        <v>61</v>
+      </c>
+      <c r="F126" s="2">
+        <v>-0.150646</v>
+      </c>
+      <c r="G126" s="2">
+        <v>-0.18399199999999999</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0.238146</v>
+      </c>
+      <c r="I126" s="2">
+        <v>0.398978</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B127" s="2">
+        <v>-0.27446100000000001</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0.17393400000000001</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.19430500000000001</v>
+      </c>
+      <c r="E127" s="2">
+        <v>64</v>
+      </c>
+      <c r="F127" s="2">
+        <v>-0.17393400000000001</v>
+      </c>
+      <c r="G127" s="2">
+        <v>-0.27446100000000001</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0.33650999999999998</v>
+      </c>
+      <c r="I127" s="2">
+        <v>0.35336299999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B128" s="2">
+        <v>-0.24895600000000001</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0.174647</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.206038</v>
+      </c>
+      <c r="E128" s="2">
+        <v>64</v>
+      </c>
+      <c r="F128" s="2">
+        <v>-0.174647</v>
+      </c>
+      <c r="G128" s="2">
+        <v>-0.24895600000000001</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0.31357400000000002</v>
+      </c>
+      <c r="I128" s="2">
+        <v>0.35973100000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B129" s="2">
+        <v>-0.24563399999999999</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0.17103099999999999</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.20411199999999999</v>
+      </c>
+      <c r="E129" s="2">
+        <v>58</v>
+      </c>
+      <c r="F129" s="2">
+        <v>-0.17103099999999999</v>
+      </c>
+      <c r="G129" s="2">
+        <v>-0.24563399999999999</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.308558</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0.367392</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B130" s="2">
+        <v>-0.25664500000000001</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.17152500000000001</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.20754400000000001</v>
+      </c>
+      <c r="E130" s="2">
+        <v>60</v>
+      </c>
+      <c r="F130" s="2">
+        <v>-0.17152500000000001</v>
+      </c>
+      <c r="G130" s="2">
+        <v>-0.25664500000000001</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0.327621</v>
+      </c>
+      <c r="I130" s="2">
+        <v>0.35230099999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B131" s="2">
+        <v>-0.209009</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0.151783</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="E131" s="2">
+        <v>57</v>
+      </c>
+      <c r="F131" s="2">
+        <v>-0.151783</v>
+      </c>
+      <c r="G131" s="2">
+        <v>-0.209009</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0.27726600000000001</v>
+      </c>
+      <c r="I131" s="2">
+        <v>0.36916900000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B132" s="2">
+        <v>-0.17116500000000001</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0.15726100000000001</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="E132" s="2">
+        <v>65</v>
+      </c>
+      <c r="F132" s="2">
+        <v>-0.15726100000000001</v>
+      </c>
+      <c r="G132" s="2">
+        <v>-0.17116500000000001</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0.23267599999999999</v>
+      </c>
+      <c r="I132" s="2">
+        <v>0.39715600000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B133" s="2">
+        <v>-0.178482</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.158522</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.23657600000000001</v>
+      </c>
+      <c r="E133" s="2">
+        <v>60</v>
+      </c>
+      <c r="F133" s="2">
+        <v>-0.158522</v>
+      </c>
+      <c r="G133" s="2">
+        <v>-0.178482</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0.25716699999999998</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0.37137599999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="2">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="B134" s="2">
+        <v>-0.42015400000000003</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.16964299999999999</v>
+      </c>
+      <c r="D134" s="2">
+        <v>6.9111699999999998E-2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>73</v>
+      </c>
+      <c r="F134" s="2">
+        <v>-0.16964299999999999</v>
+      </c>
+      <c r="G134" s="2">
+        <v>-0.42015400000000003</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0.37691000000000002</v>
+      </c>
+      <c r="I134" s="2">
+        <v>0.37937300000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B135" s="2">
+        <v>-0.48275000000000001</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1.68018</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2.82785E-6</v>
+      </c>
+      <c r="E135" s="2">
+        <v>501</v>
+      </c>
+      <c r="F135" s="2">
+        <v>-1.68018</v>
+      </c>
+      <c r="G135" s="2">
+        <v>-0.48275000000000001</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0.82848900000000003</v>
+      </c>
+      <c r="I135" s="2">
+        <v>0.83299000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B136" s="2">
+        <v>-0.25618600000000002</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.153089</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.198737</v>
+      </c>
+      <c r="E136" s="2">
+        <v>60</v>
+      </c>
+      <c r="F136" s="2">
+        <v>-0.153089</v>
+      </c>
+      <c r="G136" s="2">
+        <v>-0.25618600000000002</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0.30983899999999998</v>
+      </c>
+      <c r="I136" s="2">
+        <v>0.36457899999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="2">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="B137" s="2">
+        <v>-0.22765199999999999</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.163355</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.213419</v>
+      </c>
+      <c r="E137" s="2">
+        <v>54</v>
+      </c>
+      <c r="F137" s="2">
+        <v>-0.163355</v>
+      </c>
+      <c r="G137" s="2">
+        <v>-0.22765199999999999</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0.29353800000000002</v>
+      </c>
+      <c r="I137" s="2">
+        <v>0.36893999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B138" s="2">
+        <v>-0.16442699999999999</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.15758900000000001</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.21908</v>
+      </c>
+      <c r="E138" s="2">
+        <v>65</v>
+      </c>
+      <c r="F138" s="2">
+        <v>-0.15758900000000001</v>
+      </c>
+      <c r="G138" s="2">
+        <v>-0.16442699999999999</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0.22366900000000001</v>
+      </c>
+      <c r="I138" s="2">
+        <v>0.39897899999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="B139" s="2">
+        <v>-0.18615499999999999</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0.16603000000000001</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.23077700000000001</v>
+      </c>
+      <c r="E139" s="2">
+        <v>69</v>
+      </c>
+      <c r="F139" s="2">
+        <v>-0.16603000000000001</v>
+      </c>
+      <c r="G139" s="2">
+        <v>-0.18615499999999999</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0.26382299999999997</v>
+      </c>
+      <c r="I139" s="2">
+        <v>0.37535800000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B140" s="2">
+        <v>-0.48171399999999998</v>
+      </c>
+      <c r="C140" s="2">
+        <v>1.67031</v>
+      </c>
+      <c r="D140" s="3">
+        <v>4.2683799999999999E-5</v>
+      </c>
+      <c r="E140" s="2">
+        <v>501</v>
+      </c>
+      <c r="F140" s="2">
+        <v>-1.67031</v>
+      </c>
+      <c r="G140" s="2">
+        <v>-0.48171399999999998</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0.83255000000000001</v>
+      </c>
+      <c r="I140" s="2">
+        <v>0.828457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B141" s="2">
+        <v>-0.34547800000000001</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0.17226900000000001</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.138986</v>
+      </c>
+      <c r="E141" s="2">
+        <v>59</v>
+      </c>
+      <c r="F141" s="2">
+        <v>-0.17226900000000001</v>
+      </c>
+      <c r="G141" s="2">
+        <v>-0.34547800000000001</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0.36962499999999998</v>
+      </c>
+      <c r="I141" s="2">
+        <v>0.35616999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B142" s="2">
+        <v>-0.48205599999999998</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1.67804</v>
+      </c>
+      <c r="D142" s="3">
+        <v>3.9260600000000002E-6</v>
+      </c>
+      <c r="E142" s="2">
+        <v>501</v>
+      </c>
+      <c r="F142" s="2">
+        <v>-1.67804</v>
+      </c>
+      <c r="G142" s="2">
+        <v>-0.48205599999999998</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0.83062499999999995</v>
+      </c>
+      <c r="I142" s="2">
+        <v>0.832874</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B143" s="2">
+        <v>-0.13055700000000001</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0.161103</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.21299599999999999</v>
+      </c>
+      <c r="E143" s="2">
+        <v>62</v>
+      </c>
+      <c r="F143" s="2">
+        <v>-0.161103</v>
+      </c>
+      <c r="G143" s="2">
+        <v>-0.13055700000000001</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0.181641</v>
+      </c>
+      <c r="I143" s="2">
+        <v>0.41782799999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B144" s="2">
+        <v>-0.20009299999999999</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0.160163</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.21701100000000001</v>
+      </c>
+      <c r="E144" s="2">
+        <v>60</v>
+      </c>
+      <c r="F144" s="2">
+        <v>-0.160163</v>
+      </c>
+      <c r="G144" s="2">
+        <v>-0.20009299999999999</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0.262098</v>
+      </c>
+      <c r="I144" s="2">
+        <v>0.38249100000000003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B145" s="2">
+        <v>-0.29963499999999998</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0.169628</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.16953699999999999</v>
+      </c>
+      <c r="E145" s="2">
+        <v>60</v>
+      </c>
+      <c r="F145" s="2">
+        <v>-0.169628</v>
+      </c>
+      <c r="G145" s="2">
+        <v>-0.29963499999999998</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.34057300000000001</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0.36563400000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B146" s="2">
+        <v>-0.22486500000000001</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0.17333499999999999</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.219413</v>
+      </c>
+      <c r="E146" s="2">
+        <v>63</v>
+      </c>
+      <c r="F146" s="2">
+        <v>-0.17333499999999999</v>
+      </c>
+      <c r="G146" s="2">
+        <v>-0.22486500000000001</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0.29914400000000002</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0.36291400000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B147" s="2">
+        <v>-0.24021899999999999</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0.16877400000000001</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.20304</v>
+      </c>
+      <c r="E147" s="2">
+        <v>65</v>
+      </c>
+      <c r="F147" s="2">
+        <v>-0.16877400000000001</v>
+      </c>
+      <c r="G147" s="2">
+        <v>-0.24021899999999999</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0.29922700000000002</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0.373251</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B148" s="2">
+        <v>-0.329544</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.17611399999999999</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.14784</v>
+      </c>
+      <c r="E148" s="2">
+        <v>65</v>
+      </c>
+      <c r="F148" s="2">
+        <v>-0.17611399999999999</v>
+      </c>
+      <c r="G148" s="2">
+        <v>-0.329544</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0.356514</v>
+      </c>
+      <c r="I148" s="2">
+        <v>0.36369800000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B149" s="2">
+        <v>-0.48687900000000001</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1.6907000000000001</v>
+      </c>
+      <c r="D149" s="3">
+        <v>7.0018700000000003E-6</v>
+      </c>
+      <c r="E149" s="2">
+        <v>501</v>
+      </c>
+      <c r="F149" s="2">
+        <v>-1.6907000000000001</v>
+      </c>
+      <c r="G149" s="2">
+        <v>-0.48687900000000001</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.81837700000000002</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0.83222200000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B150" s="2">
+        <v>-0.48475299999999999</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1.67276</v>
+      </c>
+      <c r="D150" s="3">
+        <v>7.2176900000000003E-5</v>
+      </c>
+      <c r="E150" s="2">
+        <v>501</v>
+      </c>
+      <c r="F150" s="2">
+        <v>-1.67276</v>
+      </c>
+      <c r="G150" s="2">
+        <v>-0.48475299999999999</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0.82723599999999997</v>
+      </c>
+      <c r="I150" s="2">
+        <v>0.82351799999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B151" s="2">
+        <v>-0.29506199999999999</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0.16892399999999999</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.173539</v>
+      </c>
+      <c r="E151" s="2">
+        <v>65</v>
+      </c>
+      <c r="F151" s="2">
+        <v>-0.16892399999999999</v>
+      </c>
+      <c r="G151" s="2">
+        <v>-0.29506199999999999</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0.33762599999999998</v>
+      </c>
+      <c r="I151" s="2">
+        <v>0.36336499999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B152" s="2">
+        <v>-0.22248599999999999</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0.154749</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.20884</v>
+      </c>
+      <c r="E152" s="2">
+        <v>59</v>
+      </c>
+      <c r="F152" s="2">
+        <v>-0.154749</v>
+      </c>
+      <c r="G152" s="2">
+        <v>-0.22248599999999999</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0.27957100000000001</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0.37887399999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="B153" s="2">
+        <v>-0.41205900000000001</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0.175955</v>
+      </c>
+      <c r="D153" s="2">
+        <v>7.8682100000000005E-2</v>
+      </c>
+      <c r="E153" s="2">
+        <v>68</v>
+      </c>
+      <c r="F153" s="2">
+        <v>-0.175955</v>
+      </c>
+      <c r="G153" s="2">
+        <v>-0.41205900000000001</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.38838099999999998</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0.37028899999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B154" s="2">
+        <v>-0.212565</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0.16084899999999999</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.21574399999999999</v>
+      </c>
+      <c r="E154" s="2">
+        <v>58</v>
+      </c>
+      <c r="F154" s="2">
+        <v>-0.16084899999999999</v>
+      </c>
+      <c r="G154" s="2">
+        <v>-0.212565</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0.27711599999999997</v>
+      </c>
+      <c r="I154" s="2">
+        <v>0.37704599999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B155" s="2">
+        <v>-0.27849000000000002</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0.165599</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.18940799999999999</v>
+      </c>
+      <c r="E155" s="2">
+        <v>56</v>
+      </c>
+      <c r="F155" s="2">
+        <v>-0.165599</v>
+      </c>
+      <c r="G155" s="2">
+        <v>-0.27849000000000002</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0.33380700000000002</v>
+      </c>
+      <c r="I155" s="2">
+        <v>0.35672500000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B156" s="2">
+        <v>-0.14648900000000001</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0.16641500000000001</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.21845400000000001</v>
+      </c>
+      <c r="E156" s="2">
+        <v>63</v>
+      </c>
+      <c r="F156" s="2">
+        <v>-0.16641500000000001</v>
+      </c>
+      <c r="G156" s="2">
+        <v>-0.14648900000000001</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0.20632300000000001</v>
+      </c>
+      <c r="I156" s="2">
+        <v>0.40737699999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B157" s="2">
+        <v>-0.20999899999999999</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0.16075900000000001</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.21262200000000001</v>
+      </c>
+      <c r="E157" s="2">
+        <v>64</v>
+      </c>
+      <c r="F157" s="2">
+        <v>-0.16075900000000001</v>
+      </c>
+      <c r="G157" s="2">
+        <v>-0.20999899999999999</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0.27116200000000001</v>
+      </c>
+      <c r="I157" s="2">
+        <v>0.38325599999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B158" s="2">
+        <v>-0.331536</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0.17163700000000001</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.14680699999999999</v>
+      </c>
+      <c r="E158" s="2">
+        <v>61</v>
+      </c>
+      <c r="F158" s="2">
+        <v>-0.17163700000000001</v>
+      </c>
+      <c r="G158" s="2">
+        <v>-0.331536</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0.35671599999999998</v>
+      </c>
+      <c r="I158" s="2">
+        <v>0.362512</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B159" s="2">
+        <v>-0.20488700000000001</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.16828499999999999</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.22683500000000001</v>
+      </c>
+      <c r="E159" s="2">
+        <v>64</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-0.16828499999999999</v>
+      </c>
+      <c r="G159" s="2">
+        <v>-0.20488700000000001</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0.28234199999999998</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0.368558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B160" s="2">
+        <v>-0.200298</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.17297299999999999</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.22753100000000001</v>
+      </c>
+      <c r="E160" s="2">
+        <v>56</v>
+      </c>
+      <c r="F160" s="2">
+        <v>-0.17297299999999999</v>
+      </c>
+      <c r="G160" s="2">
+        <v>-0.200298</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0.27674700000000002</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0.36912800000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B161" s="2">
+        <v>-0.172515</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.174591</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.227547</v>
+      </c>
+      <c r="E161" s="2">
+        <v>56</v>
+      </c>
+      <c r="F161" s="2">
+        <v>-0.174591</v>
+      </c>
+      <c r="G161" s="2">
+        <v>-0.172515</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0.24480399999999999</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0.38469500000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B162" s="2">
+        <v>-0.26451799999999998</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0.166301</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.19132399999999999</v>
+      </c>
+      <c r="E162" s="2">
+        <v>63</v>
+      </c>
+      <c r="F162" s="2">
+        <v>-0.166301</v>
+      </c>
+      <c r="G162" s="2">
+        <v>-0.26451799999999998</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0.31700800000000001</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0.36863400000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B163" s="2">
+        <v>-0.212919</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0.157775</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.20879800000000001</v>
+      </c>
+      <c r="E163" s="2">
+        <v>62</v>
+      </c>
+      <c r="F163" s="2">
+        <v>-0.157775</v>
+      </c>
+      <c r="G163" s="2">
+        <v>-0.212919</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0.26972200000000002</v>
+      </c>
+      <c r="I163" s="2">
+        <v>0.38635900000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B164" s="2">
+        <v>-0.48345900000000003</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1.67666</v>
+      </c>
+      <c r="D164" s="3">
+        <v>3.4745500000000001E-5</v>
+      </c>
+      <c r="E164" s="2">
+        <v>501</v>
+      </c>
+      <c r="F164" s="2">
+        <v>-1.67666</v>
+      </c>
+      <c r="G164" s="2">
+        <v>-0.48345900000000003</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0.82568200000000003</v>
+      </c>
+      <c r="I164" s="2">
+        <v>0.82897100000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B165" s="2">
+        <v>-0.229133</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0.17435500000000001</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.217949</v>
+      </c>
+      <c r="E165" s="2">
+        <v>64</v>
+      </c>
+      <c r="F165" s="2">
+        <v>-0.17435500000000001</v>
+      </c>
+      <c r="G165" s="2">
+        <v>-0.229133</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0.30301600000000001</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0.361371</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B166" s="2">
+        <v>-0.23316600000000001</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0.15799199999999999</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.210536</v>
+      </c>
+      <c r="E166" s="2">
+        <v>66</v>
+      </c>
+      <c r="F166" s="2">
+        <v>-0.15799199999999999</v>
+      </c>
+      <c r="G166" s="2">
+        <v>-0.23316600000000001</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0.296931</v>
+      </c>
+      <c r="I166" s="2">
+        <v>0.36932799999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B167" s="2">
+        <v>-0.17134099999999999</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0.168041</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.22298399999999999</v>
+      </c>
+      <c r="E167" s="2">
+        <v>62</v>
+      </c>
+      <c r="F167" s="2">
+        <v>-0.168041</v>
+      </c>
+      <c r="G167" s="2">
+        <v>-0.17134099999999999</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0.23735000000000001</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0.39078600000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B168" s="2">
+        <v>-0.31341400000000003</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0.17427599999999999</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.16195499999999999</v>
+      </c>
+      <c r="E168" s="2">
+        <v>63</v>
+      </c>
+      <c r="F168" s="2">
+        <v>-0.17427599999999999</v>
+      </c>
+      <c r="G168" s="2">
+        <v>-0.31341400000000003</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0.35123399999999999</v>
+      </c>
+      <c r="I168" s="2">
+        <v>0.36008499999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B169" s="2">
+        <v>-0.28306700000000001</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0.17041799999999999</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.18462200000000001</v>
+      </c>
+      <c r="E169" s="2">
+        <v>59</v>
+      </c>
+      <c r="F169" s="2">
+        <v>-0.17041799999999999</v>
+      </c>
+      <c r="G169" s="2">
+        <v>-0.28306700000000001</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0.33601500000000001</v>
+      </c>
+      <c r="I169" s="2">
+        <v>0.35955500000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B170" s="2">
+        <v>-0.23143</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.175368</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.21033099999999999</v>
+      </c>
+      <c r="E170" s="2">
+        <v>63</v>
+      </c>
+      <c r="F170" s="2">
+        <v>-0.175368</v>
+      </c>
+      <c r="G170" s="2">
+        <v>-0.23143</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0.29826900000000001</v>
+      </c>
+      <c r="I170" s="2">
+        <v>0.37031799999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B171" s="2">
+        <v>-0.17690800000000001</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.169931</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.22769700000000001</v>
+      </c>
+      <c r="E171" s="2">
+        <v>61</v>
+      </c>
+      <c r="F171" s="2">
+        <v>-0.169931</v>
+      </c>
+      <c r="G171" s="2">
+        <v>-0.17690800000000001</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0.24822</v>
+      </c>
+      <c r="I171" s="2">
+        <v>0.38187100000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="2">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="B172" s="2">
+        <v>-0.40649299999999999</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.17352699999999999</v>
+      </c>
+      <c r="D172" s="2">
+        <v>8.2440600000000003E-2</v>
+      </c>
+      <c r="E172" s="2">
+        <v>69</v>
+      </c>
+      <c r="F172" s="2">
+        <v>-0.17352699999999999</v>
+      </c>
+      <c r="G172" s="2">
+        <v>-0.40649299999999999</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0.38214100000000001</v>
+      </c>
+      <c r="I172" s="2">
+        <v>0.37355300000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="B173" s="2">
+        <v>-0.21491099999999999</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0.170158</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.21557299999999999</v>
+      </c>
+      <c r="E173" s="2">
+        <v>55</v>
+      </c>
+      <c r="F173" s="2">
+        <v>-0.170158</v>
+      </c>
+      <c r="G173" s="2">
+        <v>-0.21491099999999999</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0.28245999999999999</v>
+      </c>
+      <c r="I173" s="2">
+        <v>0.37582199999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B174" s="2">
+        <v>-0.23857300000000001</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0.15934699999999999</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.199266</v>
+      </c>
+      <c r="E174" s="2">
+        <v>64</v>
+      </c>
+      <c r="F174" s="2">
+        <v>-0.15934699999999999</v>
+      </c>
+      <c r="G174" s="2">
+        <v>-0.23857300000000001</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0.29031400000000002</v>
+      </c>
+      <c r="I174" s="2">
+        <v>0.38006699999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B175" s="2">
+        <v>-0.17596000000000001</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0.15514500000000001</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.21609500000000001</v>
+      </c>
+      <c r="E175" s="2">
+        <v>60</v>
+      </c>
+      <c r="F175" s="2">
+        <v>-0.15514500000000001</v>
+      </c>
+      <c r="G175" s="2">
+        <v>-0.17596000000000001</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0.234705</v>
+      </c>
+      <c r="I175" s="2">
+        <v>0.39872299999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="2">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="B176" s="2">
+        <v>-0.24062</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0.17330400000000001</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.20722499999999999</v>
+      </c>
+      <c r="E176" s="2">
+        <v>69</v>
+      </c>
+      <c r="F176" s="2">
+        <v>-0.17330400000000001</v>
+      </c>
+      <c r="G176" s="2">
+        <v>-0.24062</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0.30575600000000003</v>
+      </c>
+      <c r="I176" s="2">
+        <v>0.36693999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B177" s="2">
+        <v>-0.243142</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0.16681699999999999</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.201347</v>
+      </c>
+      <c r="E177" s="2">
+        <v>60</v>
+      </c>
+      <c r="F177" s="2">
+        <v>-0.16681699999999999</v>
+      </c>
+      <c r="G177" s="2">
+        <v>-0.243142</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0.30047299999999999</v>
+      </c>
+      <c r="I177" s="2">
+        <v>0.37318899999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="2">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="B178" s="2">
+        <v>-0.38068000000000002</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0.17544699999999999</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.106513</v>
+      </c>
+      <c r="E178" s="2">
+        <v>72</v>
+      </c>
+      <c r="F178" s="2">
+        <v>-0.17544699999999999</v>
+      </c>
+      <c r="G178" s="2">
+        <v>-0.38068000000000002</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0.37909900000000002</v>
+      </c>
+      <c r="I178" s="2">
+        <v>0.36543500000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B179" s="2">
+        <v>-0.23519599999999999</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0.166912</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.20109299999999999</v>
+      </c>
+      <c r="E179" s="2">
+        <v>66</v>
+      </c>
+      <c r="F179" s="2">
+        <v>-0.166912</v>
+      </c>
+      <c r="G179" s="2">
+        <v>-0.23519599999999999</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.29032599999999997</v>
+      </c>
+      <c r="I179" s="2">
+        <v>0.38028899999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B180" s="2">
+        <v>-0.48268299999999997</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1.6660900000000001</v>
+      </c>
+      <c r="D180" s="3">
+        <v>7.9504600000000004E-5</v>
+      </c>
+      <c r="E180" s="2">
+        <v>501</v>
+      </c>
+      <c r="F180" s="2">
+        <v>-1.6660900000000001</v>
+      </c>
+      <c r="G180" s="2">
+        <v>-0.48268299999999997</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0.831646</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0.82380699999999996</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="2">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="B181" s="2">
+        <v>-0.17993200000000001</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0.145482</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0.208181</v>
+      </c>
+      <c r="E181" s="2">
+        <v>68</v>
+      </c>
+      <c r="F181" s="2">
+        <v>-0.145482</v>
+      </c>
+      <c r="G181" s="2">
+        <v>-0.17993200000000001</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0.22835</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0.40640700000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B182" s="2">
+        <v>-0.29163699999999998</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0.15693499999999999</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.17125799999999999</v>
+      </c>
+      <c r="E182" s="2">
+        <v>64</v>
+      </c>
+      <c r="F182" s="2">
+        <v>-0.15693499999999999</v>
+      </c>
+      <c r="G182" s="2">
+        <v>-0.29163699999999998</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0.322378</v>
+      </c>
+      <c r="I182" s="2">
+        <v>0.36894700000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B183" s="2">
+        <v>-0.19495299999999999</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0.15981799999999999</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.22433600000000001</v>
+      </c>
+      <c r="E183" s="2">
+        <v>61</v>
+      </c>
+      <c r="F183" s="2">
+        <v>-0.15981799999999999</v>
+      </c>
+      <c r="G183" s="2">
+        <v>-0.19495299999999999</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.26582899999999998</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0.37804500000000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B184" s="2">
+        <v>-0.286213</v>
+      </c>
+      <c r="C184" s="2">
+        <v>0.16474900000000001</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.17624600000000001</v>
+      </c>
+      <c r="E184" s="2">
+        <v>62</v>
+      </c>
+      <c r="F184" s="2">
+        <v>-0.16474900000000001</v>
+      </c>
+      <c r="G184" s="2">
+        <v>-0.286213</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0.326488</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0.36889699999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B185" s="2">
+        <v>-0.27148600000000001</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0.166772</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.19118099999999999</v>
+      </c>
+      <c r="E185" s="2">
+        <v>64</v>
+      </c>
+      <c r="F185" s="2">
+        <v>-0.166772</v>
+      </c>
+      <c r="G185" s="2">
+        <v>-0.27148600000000001</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0.32542700000000002</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0.360842</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B186" s="2">
+        <v>-0.33884500000000001</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.14043800000000001</v>
+      </c>
+      <c r="E186" s="2">
+        <v>67</v>
+      </c>
+      <c r="F186" s="2">
+        <v>-0.17019999999999999</v>
+      </c>
+      <c r="G186" s="2">
+        <v>-0.33884500000000001</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0.36044199999999998</v>
+      </c>
+      <c r="I186" s="2">
+        <v>0.36532900000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B187" s="2">
+        <v>-0.23112199999999999</v>
+      </c>
+      <c r="C187" s="2">
+        <v>0.16623099999999999</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.21526000000000001</v>
+      </c>
+      <c r="E187" s="2">
+        <v>67</v>
+      </c>
+      <c r="F187" s="2">
+        <v>-0.16623099999999999</v>
+      </c>
+      <c r="G187" s="2">
+        <v>-0.23112199999999999</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0.303651</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0.365846</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="B188" s="2">
+        <v>-0.303394</v>
+      </c>
+      <c r="C188" s="2">
+        <v>0.15837399999999999</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.17091100000000001</v>
+      </c>
+      <c r="E188" s="2">
+        <v>70</v>
+      </c>
+      <c r="F188" s="2">
+        <v>-0.15837399999999999</v>
+      </c>
+      <c r="G188" s="2">
+        <v>-0.303394</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0.34439599999999998</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0.35783700000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B189" s="2">
+        <v>-0.159551</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0.16291600000000001</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.22489799999999999</v>
+      </c>
+      <c r="E189" s="2">
+        <v>57</v>
+      </c>
+      <c r="F189" s="2">
+        <v>-0.16291600000000001</v>
+      </c>
+      <c r="G189" s="2">
+        <v>-0.159551</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0.22661100000000001</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0.39514500000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="2">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="B190" s="2">
+        <v>-0.323903</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0.16992399999999999</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.15901599999999999</v>
+      </c>
+      <c r="E190" s="2">
+        <v>71</v>
+      </c>
+      <c r="F190" s="2">
+        <v>-0.16992399999999999</v>
+      </c>
+      <c r="G190" s="2">
+        <v>-0.323903</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0.36497600000000002</v>
+      </c>
+      <c r="I190" s="2">
+        <v>0.35158600000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B191" s="2">
+        <v>-0.15243399999999999</v>
+      </c>
+      <c r="C191" s="2">
+        <v>0.15474499999999999</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.215395</v>
+      </c>
+      <c r="E191" s="2">
+        <v>58</v>
+      </c>
+      <c r="F191" s="2">
+        <v>-0.15474499999999999</v>
+      </c>
+      <c r="G191" s="2">
+        <v>-0.15243399999999999</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0.20772399999999999</v>
+      </c>
+      <c r="I191" s="2">
+        <v>0.409385</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="B192" s="2">
+        <v>-0.34097100000000002</v>
+      </c>
+      <c r="C192" s="2">
+        <v>0.168211</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.13795299999999999</v>
+      </c>
+      <c r="E192" s="2">
+        <v>70</v>
+      </c>
+      <c r="F192" s="2">
+        <v>-0.168211</v>
+      </c>
+      <c r="G192" s="2">
+        <v>-0.34097100000000002</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0.35769800000000002</v>
+      </c>
+      <c r="I192" s="2">
+        <v>0.36601299999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B193" s="2">
+        <v>-0.16508600000000001</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0.16295000000000001</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.22670999999999999</v>
+      </c>
+      <c r="E193" s="2">
+        <v>56</v>
+      </c>
+      <c r="F193" s="2">
+        <v>-0.16295000000000001</v>
+      </c>
+      <c r="G193" s="2">
+        <v>-0.16508600000000001</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0.23253399999999999</v>
+      </c>
+      <c r="I193" s="2">
+        <v>0.38900600000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B194" s="2">
+        <v>-0.26239200000000001</v>
+      </c>
+      <c r="C194" s="2">
+        <v>0.169708</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.20550199999999999</v>
+      </c>
+      <c r="E194" s="2">
+        <v>63</v>
+      </c>
+      <c r="F194" s="2">
+        <v>-0.169708</v>
+      </c>
+      <c r="G194" s="2">
+        <v>-0.26239200000000001</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0.33321600000000001</v>
+      </c>
+      <c r="I194" s="2">
+        <v>0.34998499999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B195" s="2">
+        <v>-0.21478900000000001</v>
+      </c>
+      <c r="C195" s="2">
+        <v>0.16444600000000001</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.22010199999999999</v>
+      </c>
+      <c r="E195" s="2">
+        <v>62</v>
+      </c>
+      <c r="F195" s="2">
+        <v>-0.16444600000000001</v>
+      </c>
+      <c r="G195" s="2">
+        <v>-0.21478900000000001</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0.28273100000000001</v>
+      </c>
+      <c r="I195" s="2">
+        <v>0.36775999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="2">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="B196" s="2">
+        <v>-0.28661799999999998</v>
+      </c>
+      <c r="C196" s="2">
+        <v>0.175564</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.18495600000000001</v>
+      </c>
+      <c r="E196" s="2">
+        <v>69</v>
+      </c>
+      <c r="F196" s="2">
+        <v>-0.175564</v>
+      </c>
+      <c r="G196" s="2">
+        <v>-0.28661799999999998</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0.34337699999999999</v>
+      </c>
+      <c r="I196" s="2">
+        <v>0.35499199999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B197" s="2">
+        <v>-0.35922999999999999</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0.17451800000000001</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.12509700000000001</v>
+      </c>
+      <c r="E197" s="2">
+        <v>64</v>
+      </c>
+      <c r="F197" s="2">
+        <v>-0.17451800000000001</v>
+      </c>
+      <c r="G197" s="2">
+        <v>-0.35922999999999999</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0.37035899999999999</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0.361933</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B198" s="2">
+        <v>-0.25405499999999998</v>
+      </c>
+      <c r="C198" s="2">
+        <v>0.16641300000000001</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.196215</v>
+      </c>
+      <c r="E198" s="2">
+        <v>62</v>
+      </c>
+      <c r="F198" s="2">
+        <v>-0.16641300000000001</v>
+      </c>
+      <c r="G198" s="2">
+        <v>-0.25405499999999998</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0.308695</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0.37109799999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B199" s="2">
+        <v>-0.25409700000000002</v>
+      </c>
+      <c r="C199" s="2">
+        <v>0.16595299999999999</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.194797</v>
+      </c>
+      <c r="E199" s="2">
+        <v>63</v>
+      </c>
+      <c r="F199" s="2">
+        <v>-0.16595299999999999</v>
+      </c>
+      <c r="G199" s="2">
+        <v>-0.25409700000000002</v>
+      </c>
+      <c r="H199" s="2">
+        <v>0.30707899999999999</v>
+      </c>
+      <c r="I199" s="2">
+        <v>0.37329200000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B200" s="2">
+        <v>-0.25151099999999998</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0.158497</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.19295499999999999</v>
+      </c>
+      <c r="E200" s="2">
+        <v>62</v>
+      </c>
+      <c r="F200" s="2">
+        <v>-0.158497</v>
+      </c>
+      <c r="G200" s="2">
+        <v>-0.25151099999999998</v>
+      </c>
+      <c r="H200" s="2">
+        <v>0.29855799999999999</v>
+      </c>
+      <c r="I200" s="2">
+        <v>0.37775999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B201" s="2">
+        <v>-0.13544300000000001</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0.15362999999999999</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.21615200000000001</v>
+      </c>
+      <c r="E201" s="2">
+        <v>60</v>
+      </c>
+      <c r="F201" s="2">
+        <v>-0.15362999999999999</v>
+      </c>
+      <c r="G201" s="2">
+        <v>-0.13544300000000001</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0.18895100000000001</v>
+      </c>
+      <c r="I201" s="2">
+        <v>0.41334500000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B202" s="2">
+        <v>-0.34695399999999998</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0.17635300000000001</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.14282300000000001</v>
+      </c>
+      <c r="E202" s="2">
+        <v>67</v>
+      </c>
+      <c r="F202" s="2">
+        <v>-0.17635300000000001</v>
+      </c>
+      <c r="G202" s="2">
+        <v>-0.34695399999999998</v>
+      </c>
+      <c r="H202" s="2">
+        <v>0.38284000000000001</v>
+      </c>
+      <c r="I202" s="2">
+        <v>0.346553</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B203" s="2">
+        <v>-0.48349700000000001</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1.6805600000000001</v>
+      </c>
+      <c r="D203" s="3">
+        <v>1.28698E-5</v>
+      </c>
+      <c r="E203" s="2">
+        <v>501</v>
+      </c>
+      <c r="F203" s="2">
+        <v>-1.6805600000000001</v>
+      </c>
+      <c r="G203" s="2">
+        <v>-0.48349700000000001</v>
+      </c>
+      <c r="H203" s="2">
+        <v>0.82668600000000003</v>
+      </c>
+      <c r="I203" s="2">
+        <v>0.83170299999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B204" s="2">
+        <v>-0.295491</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0.15926699999999999</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.17600199999999999</v>
+      </c>
+      <c r="E204" s="2">
+        <v>64</v>
+      </c>
+      <c r="F204" s="2">
+        <v>-0.15926699999999999</v>
+      </c>
+      <c r="G204" s="2">
+        <v>-0.295491</v>
+      </c>
+      <c r="H204" s="2">
+        <v>0.33898699999999998</v>
+      </c>
+      <c r="I204" s="2">
+        <v>0.358628</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B205" s="2">
+        <v>-0.242589</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0.15993399999999999</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.19994600000000001</v>
+      </c>
+      <c r="E205" s="2">
+        <v>59</v>
+      </c>
+      <c r="F205" s="2">
+        <v>-0.15993399999999999</v>
+      </c>
+      <c r="G205" s="2">
+        <v>-0.242589</v>
+      </c>
+      <c r="H205" s="2">
+        <v>0.29600199999999999</v>
+      </c>
+      <c r="I205" s="2">
+        <v>0.37548300000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B206" s="2">
+        <v>-0.35045799999999999</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0.165715</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.12925600000000001</v>
+      </c>
+      <c r="E206" s="2">
+        <v>59</v>
+      </c>
+      <c r="F206" s="2">
+        <v>-0.165715</v>
+      </c>
+      <c r="G206" s="2">
+        <v>-0.35045799999999999</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0.35808899999999999</v>
+      </c>
+      <c r="I206" s="2">
+        <v>0.36845699999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B207" s="2">
+        <v>-0.225276</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0.15696599999999999</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.202796</v>
+      </c>
+      <c r="E207" s="2">
+        <v>63</v>
+      </c>
+      <c r="F207" s="2">
+        <v>-0.15696599999999999</v>
+      </c>
+      <c r="G207" s="2">
+        <v>-0.225276</v>
+      </c>
+      <c r="H207" s="2">
+        <v>0.27722599999999997</v>
+      </c>
+      <c r="I207" s="2">
+        <v>0.38540999999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B208" s="2">
+        <v>-0.32235799999999998</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0.16289300000000001</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0.15202399999999999</v>
+      </c>
+      <c r="E208" s="2">
+        <v>64</v>
+      </c>
+      <c r="F208" s="2">
+        <v>-0.16289300000000001</v>
+      </c>
+      <c r="G208" s="2">
+        <v>-0.32235799999999998</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0.34641699999999997</v>
+      </c>
+      <c r="I208" s="2">
+        <v>0.36572100000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B209" s="2">
+        <v>-0.240729</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0.174259</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0.20625299999999999</v>
+      </c>
+      <c r="E209" s="2">
+        <v>65</v>
+      </c>
+      <c r="F209" s="2">
+        <v>-0.174259</v>
+      </c>
+      <c r="G209" s="2">
+        <v>-0.240729</v>
+      </c>
+      <c r="H209" s="2">
+        <v>0.30527300000000002</v>
+      </c>
+      <c r="I209" s="2">
+        <v>0.36839</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B210" s="2">
+        <v>-0.22365699999999999</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0.14861199999999999</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0.19727500000000001</v>
+      </c>
+      <c r="E210" s="2">
+        <v>63</v>
+      </c>
+      <c r="F210" s="2">
+        <v>-0.14861199999999999</v>
+      </c>
+      <c r="G210" s="2">
+        <v>-0.22365699999999999</v>
+      </c>
+      <c r="H210" s="2">
+        <v>0.26681100000000002</v>
+      </c>
+      <c r="I210" s="2">
+        <v>0.394206</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B211" s="2">
+        <v>-0.20273099999999999</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0.15942799999999999</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0.217386</v>
+      </c>
+      <c r="E211" s="2">
+        <v>58</v>
+      </c>
+      <c r="F211" s="2">
+        <v>-0.15942799999999999</v>
+      </c>
+      <c r="G211" s="2">
+        <v>-0.20273099999999999</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0.26570899999999997</v>
+      </c>
+      <c r="I211" s="2">
+        <v>0.38059300000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B212" s="2">
+        <v>-0.33729700000000001</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0.168437</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0.14135</v>
+      </c>
+      <c r="E212" s="2">
+        <v>63</v>
+      </c>
+      <c r="F212" s="2">
+        <v>-0.168437</v>
+      </c>
+      <c r="G212" s="2">
+        <v>-0.33729700000000001</v>
+      </c>
+      <c r="H212" s="2">
+        <v>0.35705100000000001</v>
+      </c>
+      <c r="I212" s="2">
+        <v>0.36483100000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B213" s="2">
+        <v>-0.27989900000000001</v>
+      </c>
+      <c r="C213" s="2">
+        <v>0.16058</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0.17690900000000001</v>
+      </c>
+      <c r="E213" s="2">
+        <v>64</v>
+      </c>
+      <c r="F213" s="2">
+        <v>-0.16058</v>
+      </c>
+      <c r="G213" s="2">
+        <v>-0.27989900000000001</v>
+      </c>
+      <c r="H213" s="2">
+        <v>0.31417899999999999</v>
+      </c>
+      <c r="I213" s="2">
+        <v>0.37273899999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B214" s="2">
+        <v>-0.25288100000000002</v>
+      </c>
+      <c r="C214" s="2">
+        <v>0.160695</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0.19040599999999999</v>
+      </c>
+      <c r="E214" s="2">
+        <v>63</v>
+      </c>
+      <c r="F214" s="2">
+        <v>-0.160695</v>
+      </c>
+      <c r="G214" s="2">
+        <v>-0.25288100000000002</v>
+      </c>
+      <c r="H214" s="2">
+        <v>0.29772599999999999</v>
+      </c>
+      <c r="I214" s="2">
+        <v>0.38026399999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B215" s="2">
+        <v>-0.23291600000000001</v>
+      </c>
+      <c r="C215" s="2">
+        <v>0.17296</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0.209176</v>
+      </c>
+      <c r="E215" s="2">
+        <v>63</v>
+      </c>
+      <c r="F215" s="2">
+        <v>-0.17296</v>
+      </c>
+      <c r="G215" s="2">
+        <v>-0.23291600000000001</v>
+      </c>
+      <c r="H215" s="2">
+        <v>0.298682</v>
+      </c>
+      <c r="I215" s="2">
+        <v>0.37108000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B216" s="2">
+        <v>-0.21964400000000001</v>
+      </c>
+      <c r="C216" s="2">
+        <v>0.146706</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0.20280799999999999</v>
+      </c>
+      <c r="E216" s="2">
+        <v>59</v>
+      </c>
+      <c r="F216" s="2">
+        <v>-0.146706</v>
+      </c>
+      <c r="G216" s="2">
+        <v>-0.21964400000000001</v>
+      </c>
+      <c r="H216" s="2">
+        <v>0.267598</v>
+      </c>
+      <c r="I216" s="2">
+        <v>0.38929399999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B217" s="2">
+        <v>-0.31695200000000001</v>
+      </c>
+      <c r="C217" s="2">
+        <v>0.16478899999999999</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0.15293599999999999</v>
+      </c>
+      <c r="E217" s="2">
+        <v>67</v>
+      </c>
+      <c r="F217" s="2">
+        <v>-0.16478899999999999</v>
+      </c>
+      <c r="G217" s="2">
+        <v>-0.31695200000000001</v>
+      </c>
+      <c r="H217" s="2">
+        <v>0.34139900000000001</v>
+      </c>
+      <c r="I217" s="2">
+        <v>0.37304199999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B218" s="2">
+        <v>-0.201903</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0.16362599999999999</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0.22128900000000001</v>
+      </c>
+      <c r="E218" s="2">
+        <v>62</v>
+      </c>
+      <c r="F218" s="2">
+        <v>-0.16362599999999999</v>
+      </c>
+      <c r="G218" s="2">
+        <v>-0.201903</v>
+      </c>
+      <c r="H218" s="2">
+        <v>0.27118100000000001</v>
+      </c>
+      <c r="I218" s="2">
+        <v>0.377085</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B219" s="2">
+        <v>-0.2082</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0.15018699999999999</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0.20854500000000001</v>
+      </c>
+      <c r="E219" s="2">
+        <v>59</v>
+      </c>
+      <c r="F219" s="2">
+        <v>-0.15018699999999999</v>
+      </c>
+      <c r="G219" s="2">
+        <v>-0.2082</v>
+      </c>
+      <c r="H219" s="2">
+        <v>0.25953599999999999</v>
+      </c>
+      <c r="I219" s="2">
+        <v>0.388015</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B220" s="2">
+        <v>-0.218523</v>
+      </c>
+      <c r="C220" s="2">
+        <v>0.163576</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0.21413099999999999</v>
+      </c>
+      <c r="E220" s="2">
+        <v>57</v>
+      </c>
+      <c r="F220" s="2">
+        <v>-0.163576</v>
+      </c>
+      <c r="G220" s="2">
+        <v>-0.218523</v>
+      </c>
+      <c r="H220" s="2">
+        <v>0.28308100000000003</v>
+      </c>
+      <c r="I220" s="2">
+        <v>0.37481199999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B221" s="2">
+        <v>-0.237372</v>
+      </c>
+      <c r="C221" s="2">
+        <v>0.17091999999999999</v>
+      </c>
+      <c r="D221" s="2">
+        <v>0.20815900000000001</v>
+      </c>
+      <c r="E221" s="2">
+        <v>61</v>
+      </c>
+      <c r="F221" s="2">
+        <v>-0.17091999999999999</v>
+      </c>
+      <c r="G221" s="2">
+        <v>-0.237372</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0.302203</v>
+      </c>
+      <c r="I221" s="2">
+        <v>0.36852200000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B222" s="2">
+        <v>-0.237785</v>
+      </c>
+      <c r="C222" s="2">
+        <v>0.153137</v>
+      </c>
+      <c r="D222" s="2">
+        <v>0.19780200000000001</v>
+      </c>
+      <c r="E222" s="2">
+        <v>58</v>
+      </c>
+      <c r="F222" s="2">
+        <v>-0.153137</v>
+      </c>
+      <c r="G222" s="2">
+        <v>-0.237785</v>
+      </c>
+      <c r="H222" s="2">
+        <v>0.285549</v>
+      </c>
+      <c r="I222" s="2">
+        <v>0.38249100000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B223" s="2">
+        <v>-0.21666099999999999</v>
+      </c>
+      <c r="C223" s="2">
+        <v>0.17465</v>
+      </c>
+      <c r="D223" s="2">
+        <v>0.225301</v>
+      </c>
+      <c r="E223" s="2">
+        <v>61</v>
+      </c>
+      <c r="F223" s="2">
+        <v>-0.17465</v>
+      </c>
+      <c r="G223" s="2">
+        <v>-0.21666099999999999</v>
+      </c>
+      <c r="H223" s="2">
+        <v>0.29435899999999998</v>
+      </c>
+      <c r="I223" s="2">
+        <v>0.360433</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B224" s="2">
+        <v>-0.20855099999999999</v>
+      </c>
+      <c r="C224" s="2">
+        <v>0.17152300000000001</v>
+      </c>
+      <c r="D224" s="2">
+        <v>0.22622600000000001</v>
+      </c>
+      <c r="E224" s="2">
+        <v>65</v>
+      </c>
+      <c r="F224" s="2">
+        <v>-0.17152300000000001</v>
+      </c>
+      <c r="G224" s="2">
+        <v>-0.20855099999999999</v>
+      </c>
+      <c r="H224" s="2">
+        <v>0.28691699999999998</v>
+      </c>
+      <c r="I224" s="2">
+        <v>0.36679499999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B225" s="2">
+        <v>-0.118243</v>
+      </c>
+      <c r="C225" s="2">
+        <v>0.16509699999999999</v>
+      </c>
+      <c r="D225" s="2">
+        <v>0.208037</v>
+      </c>
+      <c r="E225" s="2">
+        <v>61</v>
+      </c>
+      <c r="F225" s="2">
+        <v>-0.16509699999999999</v>
+      </c>
+      <c r="G225" s="2">
+        <v>-0.118243</v>
+      </c>
+      <c r="H225" s="2">
+        <v>0.16361999999999999</v>
+      </c>
+      <c r="I225" s="2">
+        <v>0.42565599999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B226" s="2">
+        <v>-0.48569499999999999</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1.6798</v>
+      </c>
+      <c r="D226" s="3">
+        <v>4.4878700000000001E-5</v>
+      </c>
+      <c r="E226" s="2">
+        <v>501</v>
+      </c>
+      <c r="F226" s="2">
+        <v>-1.6798</v>
+      </c>
+      <c r="G226" s="2">
+        <v>-0.48569499999999999</v>
+      </c>
+      <c r="H226" s="2">
+        <v>0.82274599999999998</v>
+      </c>
+      <c r="I226" s="2">
+        <v>0.82682999999999995</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B227" s="2">
+        <v>-0.25100099999999997</v>
+      </c>
+      <c r="C227" s="2">
+        <v>0.150974</v>
+      </c>
+      <c r="D227" s="2">
+        <v>0.190688</v>
+      </c>
+      <c r="E227" s="2">
+        <v>56</v>
+      </c>
+      <c r="F227" s="2">
+        <v>-0.150974</v>
+      </c>
+      <c r="G227" s="2">
+        <v>-0.25100099999999997</v>
+      </c>
+      <c r="H227" s="2">
+        <v>0.29298999999999997</v>
+      </c>
+      <c r="I227" s="2">
+        <v>0.381492</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B228" s="2">
+        <v>-0.48264299999999999</v>
+      </c>
+      <c r="C228" s="2">
+        <v>1.67005</v>
+      </c>
+      <c r="D228" s="3">
+        <v>5.72612E-5</v>
+      </c>
+      <c r="E228" s="2">
+        <v>501</v>
+      </c>
+      <c r="F228" s="2">
+        <v>-1.67005</v>
+      </c>
+      <c r="G228" s="2">
+        <v>-0.48264299999999999</v>
+      </c>
+      <c r="H228" s="2">
+        <v>0.83035999999999999</v>
+      </c>
+      <c r="I228" s="2">
+        <v>0.82647300000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="B229" s="2">
+        <v>-0.27757300000000001</v>
+      </c>
+      <c r="C229" s="2">
+        <v>0.17382400000000001</v>
+      </c>
+      <c r="D229" s="2">
+        <v>0.19105800000000001</v>
+      </c>
+      <c r="E229" s="2">
+        <v>55</v>
+      </c>
+      <c r="F229" s="2">
+        <v>-0.17382400000000001</v>
+      </c>
+      <c r="G229" s="2">
+        <v>-0.27757300000000001</v>
+      </c>
+      <c r="H229" s="2">
+        <v>0.33521099999999998</v>
+      </c>
+      <c r="I229" s="2">
+        <v>0.35387400000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B230" s="2">
+        <v>-0.34580699999999998</v>
+      </c>
+      <c r="C230" s="2">
+        <v>0.17332</v>
+      </c>
+      <c r="D230" s="2">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="E230" s="2">
+        <v>66</v>
+      </c>
+      <c r="F230" s="2">
+        <v>-0.17332</v>
+      </c>
+      <c r="G230" s="2">
+        <v>-0.34580699999999998</v>
+      </c>
+      <c r="H230" s="2">
+        <v>0.36784699999999998</v>
+      </c>
+      <c r="I230" s="2">
+        <v>0.35885</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B231" s="2">
+        <v>-0.27250400000000002</v>
+      </c>
+      <c r="C231" s="2">
+        <v>0.165349</v>
+      </c>
+      <c r="D231" s="2">
+        <v>0.18481400000000001</v>
+      </c>
+      <c r="E231" s="2">
+        <v>60</v>
+      </c>
+      <c r="F231" s="2">
+        <v>-0.165349</v>
+      </c>
+      <c r="G231" s="2">
+        <v>-0.27250400000000002</v>
+      </c>
+      <c r="H231" s="2">
+        <v>0.31870199999999999</v>
+      </c>
+      <c r="I231" s="2">
+        <v>0.370083</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B232" s="2">
+        <v>-0.17537800000000001</v>
+      </c>
+      <c r="C232" s="2">
+        <v>0.148645</v>
+      </c>
+      <c r="D232" s="2">
+        <v>0.21309600000000001</v>
+      </c>
+      <c r="E232" s="2">
+        <v>64</v>
+      </c>
+      <c r="F232" s="2">
+        <v>-0.148645</v>
+      </c>
+      <c r="G232" s="2">
+        <v>-0.17537800000000001</v>
+      </c>
+      <c r="H232" s="2">
+        <v>0.22922200000000001</v>
+      </c>
+      <c r="I232" s="2">
+        <v>0.40254800000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B233" s="2">
+        <v>-0.34392800000000001</v>
+      </c>
+      <c r="C233" s="2">
+        <v>0.175258</v>
+      </c>
+      <c r="D233" s="2">
+        <v>0.141204</v>
+      </c>
+      <c r="E233" s="2">
+        <v>58</v>
+      </c>
+      <c r="F233" s="2">
+        <v>-0.175258</v>
+      </c>
+      <c r="G233" s="2">
+        <v>-0.34392800000000001</v>
+      </c>
+      <c r="H233" s="2">
+        <v>0.372081</v>
+      </c>
+      <c r="I233" s="2">
+        <v>0.35442800000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B234" s="2">
+        <v>-0.232988</v>
+      </c>
+      <c r="C234" s="2">
+        <v>0.16117899999999999</v>
+      </c>
+      <c r="D234" s="2">
+        <v>0.203899</v>
+      </c>
+      <c r="E234" s="2">
+        <v>57</v>
+      </c>
+      <c r="F234" s="2">
+        <v>-0.16117899999999999</v>
+      </c>
+      <c r="G234" s="2">
+        <v>-0.232988</v>
+      </c>
+      <c r="H234" s="2">
+        <v>0.28893999999999997</v>
+      </c>
+      <c r="I234" s="2">
+        <v>0.37786900000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B235" s="2">
+        <v>-0.20477600000000001</v>
+      </c>
+      <c r="C235" s="2">
+        <v>0.16408300000000001</v>
+      </c>
+      <c r="D235" s="2">
+        <v>0.21407300000000001</v>
+      </c>
+      <c r="E235" s="2">
+        <v>61</v>
+      </c>
+      <c r="F235" s="2">
+        <v>-0.16408300000000001</v>
+      </c>
+      <c r="G235" s="2">
+        <v>-0.20477600000000001</v>
+      </c>
+      <c r="H235" s="2">
+        <v>0.26717999999999997</v>
+      </c>
+      <c r="I235" s="2">
+        <v>0.38461200000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B236" s="2">
+        <v>-0.25024800000000003</v>
+      </c>
+      <c r="C236" s="2">
+        <v>0.16764299999999999</v>
+      </c>
+      <c r="D236" s="2">
+        <v>0.20516699999999999</v>
+      </c>
+      <c r="E236" s="2">
+        <v>67</v>
+      </c>
+      <c r="F236" s="2">
+        <v>-0.16764299999999999</v>
+      </c>
+      <c r="G236" s="2">
+        <v>-0.25024800000000003</v>
+      </c>
+      <c r="H236" s="2">
+        <v>0.31512600000000002</v>
+      </c>
+      <c r="I236" s="2">
+        <v>0.36184899999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B237" s="2">
+        <v>-0.34005600000000002</v>
+      </c>
+      <c r="C237" s="2">
+        <v>0.17682300000000001</v>
+      </c>
+      <c r="D237" s="2">
+        <v>0.14454</v>
+      </c>
+      <c r="E237" s="2">
+        <v>65</v>
+      </c>
+      <c r="F237" s="2">
+        <v>-0.17682300000000001</v>
+      </c>
+      <c r="G237" s="2">
+        <v>-0.34005600000000002</v>
+      </c>
+      <c r="H237" s="2">
+        <v>0.371367</v>
+      </c>
+      <c r="I237" s="2">
+        <v>0.35417399999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B238" s="2">
+        <v>-0.48153000000000001</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1.6767399999999999</v>
+      </c>
+      <c r="D238" s="3">
+        <v>1.9718400000000002E-6</v>
+      </c>
+      <c r="E238" s="2">
+        <v>501</v>
+      </c>
+      <c r="F238" s="2">
+        <v>-1.6767399999999999</v>
+      </c>
+      <c r="G238" s="2">
+        <v>-0.48153000000000001</v>
+      </c>
+      <c r="H238" s="2">
+        <v>0.831708</v>
+      </c>
+      <c r="I238" s="2">
+        <v>0.83310899999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B239" s="2">
+        <v>-0.21213499999999999</v>
+      </c>
+      <c r="C239" s="2">
+        <v>0.14896100000000001</v>
+      </c>
+      <c r="D239" s="2">
+        <v>0.203014</v>
+      </c>
+      <c r="E239" s="2">
+        <v>67</v>
+      </c>
+      <c r="F239" s="2">
+        <v>-0.14896100000000001</v>
+      </c>
+      <c r="G239" s="2">
+        <v>-0.21213499999999999</v>
+      </c>
+      <c r="H239" s="2">
+        <v>0.25992700000000002</v>
+      </c>
+      <c r="I239" s="2">
+        <v>0.39441999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="2">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="B240" s="2">
+        <v>-0.26504100000000003</v>
+      </c>
+      <c r="C240" s="2">
+        <v>0.174537</v>
+      </c>
+      <c r="D240" s="2">
+        <v>0.194051</v>
+      </c>
+      <c r="E240" s="2">
+        <v>55</v>
+      </c>
+      <c r="F240" s="2">
+        <v>-0.174537</v>
+      </c>
+      <c r="G240" s="2">
+        <v>-0.26504100000000003</v>
+      </c>
+      <c r="H240" s="2">
+        <v>0.32286900000000002</v>
+      </c>
+      <c r="I240" s="2">
+        <v>0.36352200000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B241" s="2">
+        <v>-0.25417200000000001</v>
+      </c>
+      <c r="C241" s="2">
+        <v>0.16967699999999999</v>
+      </c>
+      <c r="D241" s="2">
+        <v>0.197576</v>
+      </c>
+      <c r="E241" s="2">
+        <v>65</v>
+      </c>
+      <c r="F241" s="2">
+        <v>-0.16967699999999999</v>
+      </c>
+      <c r="G241" s="2">
+        <v>-0.25417200000000001</v>
+      </c>
+      <c r="H241" s="2">
+        <v>0.31141200000000002</v>
+      </c>
+      <c r="I241" s="2">
+        <v>0.36898300000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="2">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="B242" s="2">
+        <v>-0.36431599999999997</v>
+      </c>
+      <c r="C242" s="2">
+        <v>0.17061899999999999</v>
+      </c>
+      <c r="D242" s="2">
+        <v>0.123602</v>
+      </c>
+      <c r="E242" s="2">
+        <v>71</v>
+      </c>
+      <c r="F242" s="2">
+        <v>-0.17061899999999999</v>
+      </c>
+      <c r="G242" s="2">
+        <v>-0.36431599999999997</v>
+      </c>
+      <c r="H242" s="2">
+        <v>0.38017600000000001</v>
+      </c>
+      <c r="I242" s="2">
+        <v>0.35755199999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="2">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="B243" s="2">
+        <v>-0.27380599999999999</v>
+      </c>
+      <c r="C243" s="2">
+        <v>0.15751499999999999</v>
+      </c>
+      <c r="D243" s="2">
+        <v>0.180841</v>
+      </c>
+      <c r="E243" s="2">
+        <v>68</v>
+      </c>
+      <c r="F243" s="2">
+        <v>-0.15751499999999999</v>
+      </c>
+      <c r="G243" s="2">
+        <v>-0.27380599999999999</v>
+      </c>
+      <c r="H243" s="2">
+        <v>0.31272800000000001</v>
+      </c>
+      <c r="I243" s="2">
+        <v>0.374755</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="2">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="B244" s="2">
+        <v>-0.27447300000000002</v>
+      </c>
+      <c r="C244" s="2">
+        <v>0.17078399999999999</v>
+      </c>
+      <c r="D244" s="2">
+        <v>0.19956099999999999</v>
+      </c>
+      <c r="E244" s="2">
+        <v>82</v>
+      </c>
+      <c r="F244" s="2">
+        <v>-0.17078399999999999</v>
+      </c>
+      <c r="G244" s="2">
+        <v>-0.27447300000000002</v>
+      </c>
+      <c r="H244" s="2">
+        <v>0.34417799999999998</v>
+      </c>
+      <c r="I244" s="2">
+        <v>0.34659099999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B245" s="2">
+        <v>-0.48204200000000003</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1.6767399999999999</v>
+      </c>
+      <c r="D245" s="3">
+        <v>1.1243800000000001E-5</v>
+      </c>
+      <c r="E245" s="2">
+        <v>501</v>
+      </c>
+      <c r="F245" s="2">
+        <v>-1.6767399999999999</v>
+      </c>
+      <c r="G245" s="2">
+        <v>-0.48204200000000003</v>
+      </c>
+      <c r="H245" s="2">
+        <v>0.82764700000000002</v>
+      </c>
+      <c r="I245" s="2">
+        <v>0.83202799999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B246" s="2">
+        <v>-0.34093699999999999</v>
+      </c>
+      <c r="C246" s="2">
+        <v>0.17323</v>
+      </c>
+      <c r="D246" s="2">
+        <v>0.14693100000000001</v>
+      </c>
+      <c r="E246" s="2">
+        <v>67</v>
+      </c>
+      <c r="F246" s="2">
+        <v>-0.17323</v>
+      </c>
+      <c r="G246" s="2">
+        <v>-0.34093699999999999</v>
+      </c>
+      <c r="H246" s="2">
+        <v>0.37689</v>
+      </c>
+      <c r="I246" s="2">
+        <v>0.348107</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B247" s="2">
+        <v>-0.24238299999999999</v>
+      </c>
+      <c r="C247" s="2">
+        <v>0.15413499999999999</v>
+      </c>
+      <c r="D247" s="2">
+        <v>0.20991799999999999</v>
+      </c>
+      <c r="E247" s="2">
+        <v>58</v>
+      </c>
+      <c r="F247" s="2">
+        <v>-0.15413499999999999</v>
+      </c>
+      <c r="G247" s="2">
+        <v>-0.24238299999999999</v>
+      </c>
+      <c r="H247" s="2">
+        <v>0.30666900000000002</v>
+      </c>
+      <c r="I247" s="2">
+        <v>0.362205</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B248" s="2">
+        <v>-0.22969100000000001</v>
+      </c>
+      <c r="C248" s="2">
+        <v>0.152806</v>
+      </c>
+      <c r="D248" s="2">
+        <v>0.20311399999999999</v>
+      </c>
+      <c r="E248" s="2">
+        <v>63</v>
+      </c>
+      <c r="F248" s="2">
+        <v>-0.152806</v>
+      </c>
+      <c r="G248" s="2">
+        <v>-0.22969100000000001</v>
+      </c>
+      <c r="H248" s="2">
+        <v>0.281721</v>
+      </c>
+      <c r="I248" s="2">
+        <v>0.38151400000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B249" s="2">
+        <v>-0.31495099999999998</v>
+      </c>
+      <c r="C249" s="2">
+        <v>0.16323399999999999</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0.15695500000000001</v>
+      </c>
+      <c r="E249" s="2">
+        <v>67</v>
+      </c>
+      <c r="F249" s="2">
+        <v>-0.16323399999999999</v>
+      </c>
+      <c r="G249" s="2">
+        <v>-0.31495099999999998</v>
+      </c>
+      <c r="H249" s="2">
+        <v>0.34226400000000001</v>
+      </c>
+      <c r="I249" s="2">
+        <v>0.36696200000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B250" s="2">
+        <v>-0.18820799999999999</v>
+      </c>
+      <c r="C250" s="2">
+        <v>0.173508</v>
+      </c>
+      <c r="D250" s="2">
+        <v>0.22590099999999999</v>
+      </c>
+      <c r="E250" s="2">
+        <v>61</v>
+      </c>
+      <c r="F250" s="2">
+        <v>-0.173508</v>
+      </c>
+      <c r="G250" s="2">
+        <v>-0.18820799999999999</v>
+      </c>
+      <c r="H250" s="2">
+        <v>0.26259700000000002</v>
+      </c>
+      <c r="I250" s="2">
+        <v>0.37970100000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B251" s="2">
+        <v>-0.298261</v>
+      </c>
+      <c r="C251" s="2">
+        <v>0.17546300000000001</v>
+      </c>
+      <c r="D251" s="2">
+        <v>0.182426</v>
+      </c>
+      <c r="E251" s="2">
+        <v>57</v>
+      </c>
+      <c r="F251" s="2">
+        <v>-0.17546300000000001</v>
+      </c>
+      <c r="G251" s="2">
+        <v>-0.298261</v>
+      </c>
+      <c r="H251" s="2">
+        <v>0.35847000000000001</v>
+      </c>
+      <c r="I251" s="2">
+        <v>0.34521400000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B252" s="2">
+        <v>-0.236538</v>
+      </c>
+      <c r="C252" s="2">
+        <v>0.16268199999999999</v>
+      </c>
+      <c r="D252" s="2">
+        <v>0.204018</v>
+      </c>
+      <c r="E252" s="2">
+        <v>66</v>
+      </c>
+      <c r="F252" s="2">
+        <v>-0.16268199999999999</v>
+      </c>
+      <c r="G252" s="2">
+        <v>-0.236538</v>
+      </c>
+      <c r="H252" s="2">
+        <v>0.29409000000000002</v>
+      </c>
+      <c r="I252" s="2">
+        <v>0.37495899999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B253" s="2">
+        <v>-0.48428300000000002</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1.6576</v>
+      </c>
+      <c r="D253" s="2">
+        <v>1.43929E-4</v>
+      </c>
+      <c r="E253" s="2">
+        <v>501</v>
+      </c>
+      <c r="F253" s="2">
+        <v>-1.6576</v>
+      </c>
+      <c r="G253" s="2">
+        <v>-0.48428300000000002</v>
+      </c>
+      <c r="H253" s="2">
+        <v>0.83102100000000001</v>
+      </c>
+      <c r="I253" s="2">
+        <v>0.81454800000000005</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="2">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="B254" s="2">
+        <v>-0.25745299999999999</v>
+      </c>
+      <c r="C254" s="2">
+        <v>0.156247</v>
+      </c>
+      <c r="D254" s="2">
+        <v>0.19156200000000001</v>
+      </c>
+      <c r="E254" s="2">
+        <v>57</v>
+      </c>
+      <c r="F254" s="2">
+        <v>-0.156247</v>
+      </c>
+      <c r="G254" s="2">
+        <v>-0.25745299999999999</v>
+      </c>
+      <c r="H254" s="2">
+        <v>0.30146299999999998</v>
+      </c>
+      <c r="I254" s="2">
+        <v>0.372531</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B255" s="2">
+        <v>-0.14655399999999999</v>
+      </c>
+      <c r="C255" s="2">
+        <v>0.169493</v>
+      </c>
+      <c r="D255" s="2">
+        <v>0.23194100000000001</v>
+      </c>
+      <c r="E255" s="2">
+        <v>56</v>
+      </c>
+      <c r="F255" s="2">
+        <v>-0.169493</v>
+      </c>
+      <c r="G255" s="2">
+        <v>-0.14655399999999999</v>
+      </c>
+      <c r="H255" s="2">
+        <v>0.21868799999999999</v>
+      </c>
+      <c r="I255" s="2">
+        <v>0.39054699999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="2">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="B256" s="2">
+        <v>-0.31909199999999999</v>
+      </c>
+      <c r="C256" s="2">
+        <v>0.174819</v>
+      </c>
+      <c r="D256" s="2">
+        <v>0.160994</v>
+      </c>
+      <c r="E256" s="2">
+        <v>62</v>
+      </c>
+      <c r="F256" s="2">
+        <v>-0.174819</v>
+      </c>
+      <c r="G256" s="2">
+        <v>-0.31909199999999999</v>
+      </c>
+      <c r="H256" s="2">
+        <v>0.36111599999999999</v>
+      </c>
+      <c r="I256" s="2">
+        <v>0.35492299999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B257" s="2">
+        <v>-0.218614</v>
+      </c>
+      <c r="C257" s="2">
+        <v>0.16477800000000001</v>
+      </c>
+      <c r="D257" s="2">
+        <v>0.21037600000000001</v>
+      </c>
+      <c r="E257" s="2">
+        <v>67</v>
+      </c>
+      <c r="F257" s="2">
+        <v>-0.16477800000000001</v>
+      </c>
+      <c r="G257" s="2">
+        <v>-0.218614</v>
+      </c>
+      <c r="H257" s="2">
+        <v>0.27955200000000002</v>
+      </c>
+      <c r="I257" s="2">
+        <v>0.37988</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="2">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="B258" s="2">
+        <v>-0.250668</v>
+      </c>
+      <c r="C258" s="2">
+        <v>0.17551700000000001</v>
+      </c>
+      <c r="D258" s="2">
+        <v>0.202572</v>
+      </c>
+      <c r="E258" s="2">
+        <v>54</v>
+      </c>
+      <c r="F258" s="2">
+        <v>-0.17551700000000001</v>
+      </c>
+      <c r="G258" s="2">
+        <v>-0.250668</v>
+      </c>
+      <c r="H258" s="2">
+        <v>0.314332</v>
+      </c>
+      <c r="I258" s="2">
+        <v>0.36487599999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B259" s="2">
+        <v>-0.48624099999999998</v>
+      </c>
+      <c r="C259" s="2">
+        <v>1.68303</v>
+      </c>
+      <c r="D259" s="3">
+        <v>5.3338199999999997E-5</v>
+      </c>
+      <c r="E259" s="2">
+        <v>501</v>
+      </c>
+      <c r="F259" s="2">
+        <v>-1.68303</v>
+      </c>
+      <c r="G259" s="2">
+        <v>-0.48624099999999998</v>
+      </c>
+      <c r="H259" s="2">
+        <v>0.82244499999999998</v>
+      </c>
+      <c r="I259" s="2">
+        <v>0.82527099999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B260" s="2">
+        <v>-0.235653</v>
+      </c>
+      <c r="C260" s="2">
+        <v>0.16813800000000001</v>
+      </c>
+      <c r="D260" s="2">
+        <v>0.20538300000000001</v>
+      </c>
+      <c r="E260" s="2">
+        <v>60</v>
+      </c>
+      <c r="F260" s="2">
+        <v>-0.16813800000000001</v>
+      </c>
+      <c r="G260" s="2">
+        <v>-0.235653</v>
+      </c>
+      <c r="H260" s="2">
+        <v>0.29604399999999997</v>
+      </c>
+      <c r="I260" s="2">
+        <v>0.37379299999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="2">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="B261" s="2">
+        <v>-0.23963999999999999</v>
+      </c>
+      <c r="C261" s="2">
+        <v>0.15256400000000001</v>
+      </c>
+      <c r="D261" s="2">
+        <v>0.19705500000000001</v>
+      </c>
+      <c r="E261" s="2">
+        <v>58</v>
+      </c>
+      <c r="F261" s="2">
+        <v>-0.15256400000000001</v>
+      </c>
+      <c r="G261" s="2">
+        <v>-0.23963999999999999</v>
+      </c>
+      <c r="H261" s="2">
+        <v>0.28676099999999999</v>
+      </c>
+      <c r="I261" s="2">
+        <v>0.38198700000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B262" s="2">
+        <v>-0.48351699999999997</v>
+      </c>
+      <c r="C262" s="2">
+        <v>1.6772</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2.92535E-5</v>
+      </c>
+      <c r="E262" s="2">
+        <v>501</v>
+      </c>
+      <c r="F262" s="2">
+        <v>-1.6772</v>
+      </c>
+      <c r="G262" s="2">
+        <v>-0.48351699999999997</v>
+      </c>
+      <c r="H262" s="2">
+        <v>0.82771499999999998</v>
+      </c>
+      <c r="I262" s="2">
+        <v>0.82962999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="B263" s="2">
+        <v>-0.33309899999999998</v>
+      </c>
+      <c r="C263" s="2">
+        <v>0.171182</v>
+      </c>
+      <c r="D263" s="2">
+        <v>0.14307600000000001</v>
+      </c>
+      <c r="E263" s="2">
+        <v>70</v>
+      </c>
+      <c r="F263" s="2">
+        <v>-0.171182</v>
+      </c>
+      <c r="G263" s="2">
+        <v>-0.33309899999999998</v>
+      </c>
+      <c r="H263" s="2">
+        <v>0.35361399999999998</v>
+      </c>
+      <c r="I263" s="2">
+        <v>0.36818000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B264" s="2">
+        <v>-0.20460200000000001</v>
+      </c>
+      <c r="C264" s="2">
+        <v>0.170492</v>
+      </c>
+      <c r="D264" s="2">
+        <v>0.21842200000000001</v>
+      </c>
+      <c r="E264" s="2">
+        <v>56</v>
+      </c>
+      <c r="F264" s="2">
+        <v>-0.170492</v>
+      </c>
+      <c r="G264" s="2">
+        <v>-0.20460200000000001</v>
+      </c>
+      <c r="H264" s="2">
+        <v>0.273534</v>
+      </c>
+      <c r="I264" s="2">
+        <v>0.37931100000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B265" s="2">
+        <v>-0.26618399999999998</v>
+      </c>
+      <c r="C265" s="2">
+        <v>0.162356</v>
+      </c>
+      <c r="D265" s="2">
+        <v>0.187143</v>
+      </c>
+      <c r="E265" s="2">
+        <v>61</v>
+      </c>
+      <c r="F265" s="2">
+        <v>-0.162356</v>
+      </c>
+      <c r="G265" s="2">
+        <v>-0.26618399999999998</v>
+      </c>
+      <c r="H265" s="2">
+        <v>0.311861</v>
+      </c>
+      <c r="I265" s="2">
+        <v>0.37267600000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B266" s="2">
+        <v>-0.266598</v>
+      </c>
+      <c r="C266" s="2">
+        <v>0.15682599999999999</v>
+      </c>
+      <c r="D266" s="2">
+        <v>0.18304699999999999</v>
+      </c>
+      <c r="E266" s="2">
+        <v>64</v>
+      </c>
+      <c r="F266" s="2">
+        <v>-0.15682599999999999</v>
+      </c>
+      <c r="G266" s="2">
+        <v>-0.266598</v>
+      </c>
+      <c r="H266" s="2">
+        <v>0.30526399999999998</v>
+      </c>
+      <c r="I266" s="2">
+        <v>0.37837399999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B267" s="2">
+        <v>-0.481825</v>
+      </c>
+      <c r="C267" s="2">
+        <v>1.6722999999999999</v>
+      </c>
+      <c r="D267" s="3">
+        <v>3.4722499999999998E-5</v>
+      </c>
+      <c r="E267" s="2">
+        <v>501</v>
+      </c>
+      <c r="F267" s="2">
+        <v>-1.6722999999999999</v>
+      </c>
+      <c r="G267" s="2">
+        <v>-0.481825</v>
+      </c>
+      <c r="H267" s="2">
+        <v>0.83230599999999999</v>
+      </c>
+      <c r="I267" s="2">
+        <v>0.82933400000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B268" s="2">
+        <v>-0.184473</v>
+      </c>
+      <c r="C268" s="2">
+        <v>0.16000900000000001</v>
+      </c>
+      <c r="D268" s="2">
+        <v>0.21912400000000001</v>
+      </c>
+      <c r="E268" s="2">
+        <v>65</v>
+      </c>
+      <c r="F268" s="2">
+        <v>-0.16000900000000001</v>
+      </c>
+      <c r="G268" s="2">
+        <v>-0.184473</v>
+      </c>
+      <c r="H268" s="2">
+        <v>0.24841199999999999</v>
+      </c>
+      <c r="I268" s="2">
+        <v>0.39048699999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="2">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="B269" s="2">
+        <v>-0.31987500000000002</v>
+      </c>
+      <c r="C269" s="2">
+        <v>0.16583899999999999</v>
+      </c>
+      <c r="D269" s="2">
+        <v>0.15234400000000001</v>
+      </c>
+      <c r="E269" s="2">
+        <v>64</v>
+      </c>
+      <c r="F269" s="2">
+        <v>-0.16583899999999999</v>
+      </c>
+      <c r="G269" s="2">
+        <v>-0.31987500000000002</v>
+      </c>
+      <c r="H269" s="2">
+        <v>0.34354400000000002</v>
+      </c>
+      <c r="I269" s="2">
+        <v>0.36865100000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B270" s="2">
+        <v>-0.22112599999999999</v>
+      </c>
+      <c r="C270" s="2">
+        <v>0.175341</v>
+      </c>
+      <c r="D270" s="2">
+        <v>0.22397600000000001</v>
+      </c>
+      <c r="E270" s="2">
+        <v>67</v>
+      </c>
+      <c r="F270" s="2">
+        <v>-0.175341</v>
+      </c>
+      <c r="G270" s="2">
+        <v>-0.22112599999999999</v>
+      </c>
+      <c r="H270" s="2">
+        <v>0.30120599999999997</v>
+      </c>
+      <c r="I270" s="2">
+        <v>0.36070099999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B271" s="2">
+        <v>-0.26401400000000003</v>
+      </c>
+      <c r="C271" s="2">
+        <v>0.170344</v>
+      </c>
+      <c r="D271" s="2">
+        <v>0.19076699999999999</v>
+      </c>
+      <c r="E271" s="2">
+        <v>63</v>
+      </c>
+      <c r="F271" s="2">
+        <v>-0.170344</v>
+      </c>
+      <c r="G271" s="2">
+        <v>-0.26401400000000003</v>
+      </c>
+      <c r="H271" s="2">
+        <v>0.31614599999999998</v>
+      </c>
+      <c r="I271" s="2">
+        <v>0.369558</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="B272" s="2">
+        <v>-0.171461</v>
+      </c>
+      <c r="C272" s="2">
+        <v>0.162656</v>
+      </c>
+      <c r="D272" s="2">
+        <v>0.21696299999999999</v>
+      </c>
+      <c r="E272" s="2">
+        <v>65</v>
+      </c>
+      <c r="F272" s="2">
+        <v>-0.162656</v>
+      </c>
+      <c r="G272" s="2">
+        <v>-0.171461</v>
+      </c>
+      <c r="H272" s="2">
+        <v>0.230767</v>
+      </c>
+      <c r="I272" s="2">
+        <v>0.39855499999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B273" s="2">
+        <v>-0.24091399999999999</v>
+      </c>
+      <c r="C273" s="2">
+        <v>0.15557399999999999</v>
+      </c>
+      <c r="D273" s="2">
+        <v>0.203268</v>
+      </c>
+      <c r="E273" s="2">
+        <v>61</v>
+      </c>
+      <c r="F273" s="2">
+        <v>-0.15557399999999999</v>
+      </c>
+      <c r="G273" s="2">
+        <v>-0.24091399999999999</v>
+      </c>
+      <c r="H273" s="2">
+        <v>0.29452</v>
+      </c>
+      <c r="I273" s="2">
+        <v>0.37065700000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B274" s="2">
+        <v>-0.16925100000000001</v>
+      </c>
+      <c r="C274" s="2">
+        <v>0.15687100000000001</v>
+      </c>
+      <c r="D274" s="2">
+        <v>0.21984600000000001</v>
+      </c>
+      <c r="E274" s="2">
+        <v>56</v>
+      </c>
+      <c r="F274" s="2">
+        <v>-0.15687100000000001</v>
+      </c>
+      <c r="G274" s="2">
+        <v>-0.16925100000000001</v>
+      </c>
+      <c r="H274" s="2">
+        <v>0.22970599999999999</v>
+      </c>
+      <c r="I274" s="2">
+        <v>0.39598100000000003</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="2">
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="B275" s="2">
+        <v>-0.484128</v>
+      </c>
+      <c r="C275" s="2">
+        <v>1.68374</v>
+      </c>
+      <c r="D275" s="3">
+        <v>5.5044199999999999E-6</v>
+      </c>
+      <c r="E275" s="2">
+        <v>501</v>
+      </c>
+      <c r="F275" s="2">
+        <v>-1.68374</v>
+      </c>
+      <c r="G275" s="2">
+        <v>-0.484128</v>
+      </c>
+      <c r="H275" s="2">
+        <v>0.82414299999999996</v>
+      </c>
+      <c r="I275" s="2">
+        <v>0.83260900000000004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="2">
+        <v>0.8992</v>
+      </c>
+      <c r="B276" s="2">
+        <v>-0.27678900000000001</v>
+      </c>
+      <c r="C276" s="2">
+        <v>0.17340800000000001</v>
+      </c>
+      <c r="D276" s="2">
+        <v>0.18574499999999999</v>
+      </c>
+      <c r="E276" s="2">
+        <v>63</v>
+      </c>
+      <c r="F276" s="2">
+        <v>-0.17340800000000001</v>
+      </c>
+      <c r="G276" s="2">
+        <v>-0.27678900000000001</v>
+      </c>
+      <c r="H276" s="2">
+        <v>0.32812400000000003</v>
+      </c>
+      <c r="I276" s="2">
+        <v>0.36395100000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="B277" s="2">
+        <v>-0.28251500000000002</v>
+      </c>
+      <c r="C277" s="2">
+        <v>0.16040699999999999</v>
+      </c>
+      <c r="D277" s="2">
+        <v>0.175314</v>
+      </c>
+      <c r="E277" s="2">
+        <v>67</v>
+      </c>
+      <c r="F277" s="2">
+        <v>-0.16040699999999999</v>
+      </c>
+      <c r="G277" s="2">
+        <v>-0.28251500000000002</v>
+      </c>
+      <c r="H277" s="2">
+        <v>0.31870900000000002</v>
+      </c>
+      <c r="I277" s="2">
+        <v>0.374643</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="B278" s="2">
+        <v>-0.22900400000000001</v>
+      </c>
+      <c r="C278" s="2">
+        <v>0.15792900000000001</v>
+      </c>
+      <c r="D278" s="2">
+        <v>0.19930500000000001</v>
+      </c>
+      <c r="E278" s="2">
+        <v>70</v>
+      </c>
+      <c r="F278" s="2">
+        <v>-0.15792900000000001</v>
+      </c>
+      <c r="G278" s="2">
+        <v>-0.22900400000000001</v>
+      </c>
+      <c r="H278" s="2">
+        <v>0.27827200000000002</v>
+      </c>
+      <c r="I278" s="2">
+        <v>0.38764399999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="B279" s="2">
+        <v>-0.305398</v>
+      </c>
+      <c r="C279" s="2">
+        <v>0.174121</v>
+      </c>
+      <c r="D279" s="2">
+        <v>0.16744700000000001</v>
+      </c>
+      <c r="E279" s="2">
+        <v>66</v>
+      </c>
+      <c r="F279" s="2">
+        <v>-0.174121</v>
+      </c>
+      <c r="G279" s="2">
+        <v>-0.305398</v>
+      </c>
+      <c r="H279" s="2">
+        <v>0.346744</v>
+      </c>
+      <c r="I279" s="2">
+        <v>0.36112499999999997</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="2">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="B280" s="2">
+        <v>-0.232961</v>
+      </c>
+      <c r="C280" s="2">
+        <v>0.15573300000000001</v>
+      </c>
+      <c r="D280" s="2">
+        <v>0.208704</v>
+      </c>
+      <c r="E280" s="2">
+        <v>56</v>
+      </c>
+      <c r="F280" s="2">
+        <v>-0.15573300000000001</v>
+      </c>
+      <c r="G280" s="2">
+        <v>-0.232961</v>
+      </c>
+      <c r="H280" s="2">
+        <v>0.293794</v>
+      </c>
+      <c r="I280" s="2">
+        <v>0.371867</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="B281" s="2">
+        <v>-0.14480499999999999</v>
+      </c>
+      <c r="C281" s="2">
+        <v>0.172709</v>
+      </c>
+      <c r="D281" s="2">
+        <v>0.22775200000000001</v>
+      </c>
+      <c r="E281" s="2">
+        <v>59</v>
+      </c>
+      <c r="F281" s="2">
+        <v>-0.172709</v>
+      </c>
+      <c r="G281" s="2">
+        <v>-0.14480499999999999</v>
+      </c>
+      <c r="H281" s="2">
+        <v>0.21216299999999999</v>
+      </c>
+      <c r="I281" s="2">
+        <v>0.394903</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="2">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="B282" s="2">
+        <v>-0.16540199999999999</v>
+      </c>
+      <c r="C282" s="2">
+        <v>0.17368900000000001</v>
+      </c>
+      <c r="D282" s="2">
+        <v>0.224913</v>
+      </c>
+      <c r="E282" s="2">
+        <v>61</v>
+      </c>
+      <c r="F282" s="2">
+        <v>-0.17368900000000001</v>
+      </c>
+      <c r="G282" s="2">
+        <v>-0.16540199999999999</v>
+      </c>
+      <c r="H282" s="2">
+        <v>0.23400099999999999</v>
+      </c>
+      <c r="I282" s="2">
+        <v>0.39122000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B283" s="2">
+        <v>-0.178172</v>
+      </c>
+      <c r="C283" s="2">
+        <v>0.17161999999999999</v>
+      </c>
+      <c r="D283" s="2">
+        <v>0.22391800000000001</v>
+      </c>
+      <c r="E283" s="2">
+        <v>60</v>
+      </c>
+      <c r="F283" s="2">
+        <v>-0.17161999999999999</v>
+      </c>
+      <c r="G283" s="2">
+        <v>-0.178172</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0.24695300000000001</v>
+      </c>
+      <c r="I283" s="2">
+        <v>0.386324</v>
       </c>
     </row>
   </sheetData>
